--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="46" customWidth="1" min="4" max="4"/>
+    <col width="47" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
@@ -643,7 +643,11 @@
           <t>05/12/2023</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr"/>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>10/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="46" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -716,7 +720,11 @@
           <t>05/12/2023</t>
         </is>
       </c>
-      <c r="O3" s="3" t="inlineStr"/>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>10/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="46" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -789,7 +797,11 @@
           <t>05/12/2023</t>
         </is>
       </c>
-      <c r="O4" s="3" t="inlineStr"/>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>10/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="46" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -862,7 +874,11 @@
           <t>05/12/2023</t>
         </is>
       </c>
-      <c r="O5" s="3" t="inlineStr"/>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>10/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="46" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
@@ -935,7 +951,11 @@
           <t>05/12/2023</t>
         </is>
       </c>
-      <c r="O6" s="3" t="inlineStr"/>
+      <c r="O6" s="3" t="inlineStr">
+        <is>
+          <t>10/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
@@ -1009,6 +1029,391 @@
         </is>
       </c>
       <c r="O7" s="3" t="inlineStr"/>
+    </row>
+    <row r="8" ht="47" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>992346</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>874215906382510947126503849032165078912345678</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>00.822.602/0001-24</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Aumericana</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>689,91</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>B17025056</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>1,0000</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>Protetor de Carter</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>Rl</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
+        </is>
+      </c>
+      <c r="O8" s="3" t="inlineStr">
+        <is>
+          <t>10/08/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="47" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>992346</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>874215906382510947126503849032165078912345678</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>00.822.602/0001-24</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Aumericana</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>689,91</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>1070100752</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>1,0000</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>Freio ABS</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>RL</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>48,91</t>
+        </is>
+      </c>
+      <c r="N9" s="3" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
+        </is>
+      </c>
+      <c r="O9" s="3" t="inlineStr">
+        <is>
+          <t>10/08/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="47" customHeight="1">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>992346</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>874215906382510947126503849032165078912345678</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>00.822.602/0001-24</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>Aumericana</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>689,91</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>B17025056</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>1,0000</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>Capo de Carbono</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>Rl</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="N10" s="3" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
+        </is>
+      </c>
+      <c r="O10" s="3" t="inlineStr">
+        <is>
+          <t>10/08/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="47" customHeight="1">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>992346</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>874215906382510947126503849032165078912345678</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>00.822.602/0001-24</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Aumericana</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>689,91</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>B17040056</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>1,0000</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>Pneu Tracker Premier 2021</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>Rl</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
+        </is>
+      </c>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
+          <t>10/08/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="47" customHeight="1">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>992346</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>874215906382510947126503849032165078912345678</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>00.822.602/0001-24</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>Aumericana</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>689,91</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>B18525056</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>1,0000</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>Escapamento Ponta Cromada</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>Rl</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
+        </is>
+      </c>
+      <c r="O12" s="3" t="inlineStr">
+        <is>
+          <t>10/08/2024</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
